--- a/StructureDefinition-lk-core-moh-area-ext.xlsx
+++ b/StructureDefinition-lk-core-moh-area-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T00:18:27+05:30</t>
+    <t>2023-08-14T13:12:37+05:30</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lk-core-moh-area-ext.xlsx
+++ b/StructureDefinition-lk-core-moh-area-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T13:12:37+05:30</t>
+    <t>2023-09-05T15:30:49+05:30</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -131,6 +131,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -174,10 +178,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -656,7 +656,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>33</v>
@@ -664,10 +664,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -678,7 +678,7 @@
         <v>34</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>33</v>
@@ -690,13 +690,13 @@
         <v>33</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -747,13 +747,13 @@
         <v>33</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>33</v>
@@ -762,15 +762,15 @@
         <v>33</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -793,13 +793,13 @@
         <v>33</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>24</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -838,19 +838,19 @@
         <v>33</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>34</v>
@@ -862,7 +862,7 @@
         <v>33</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>33</v>
@@ -881,10 +881,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>33</v>
@@ -958,10 +958,10 @@
         <v>53</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>33</v>
@@ -989,7 +989,7 @@
         <v>34</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>33</v>
@@ -1062,7 +1062,7 @@
         <v>34</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>33</v>
